--- a/Data/EC/NIT-9002144505.xlsx
+++ b/Data/EC/NIT-9002144505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0D64A4-FE68-4A74-BB2F-36FC97E7A376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BAA953F-AEBA-4B7A-947E-33C48004C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5D6596B-E1BF-42EF-893B-4F99A2568C6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB855FDB-83F5-4A35-A9D7-C7A36BAA521A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="80">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,175 +65,184 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73558117</t>
+  </si>
+  <si>
+    <t>HEBERTH ENRIQUE SIMANCAS GUARDO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1063075713</t>
+  </si>
+  <si>
+    <t>MOISES DAVID ORTIZ SUAREZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>1128053405</t>
   </si>
   <si>
     <t>CARMELO SAMUEL BEJARANO AMELL</t>
   </si>
   <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
     <t>1701</t>
   </si>
   <si>
-    <t>1702</t>
-  </si>
-  <si>
     <t>1143375084</t>
   </si>
   <si>
     <t>ALBERTO ENRIQUE CEBALLOS CAICEDO</t>
   </si>
   <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
     <t>1096200405</t>
   </si>
   <si>
     <t>MARIO JOSE MORA RICO</t>
   </si>
   <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2310</t>
   </si>
   <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
     <t>1044426349</t>
   </si>
   <si>
     <t>ALVARO JUNIOR ARANGO PONTON</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>73558117</t>
-  </si>
-  <si>
-    <t>HEBERTH ENRIQUE SIMANCAS GUARDO</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -647,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B737AE-18EC-4F76-1716-8068845B340C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF093390-4C74-9ABF-651D-EBC77D06BBA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,8 +1007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0EBED-6195-48C9-936E-1CEBA0A154DC}">
-  <dimension ref="B2:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B0C57C-6A17-418E-9F99-0D9D4E6C5F40}">
+  <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1023,7 +1032,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1068,7 +1077,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1100,12 +1109,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9657372</v>
+        <v>10123802</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1116,17 +1125,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1153,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1176,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24533</v>
+        <v>320000</v>
       </c>
       <c r="G16" s="18">
-        <v>2300000</v>
+        <v>8000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1199,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>92000</v>
+        <v>320000</v>
       </c>
       <c r="G17" s="18">
-        <v>2300000</v>
+        <v>8000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1213,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>89179</v>
+        <v>320000</v>
       </c>
       <c r="G18" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1242,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>92000</v>
+        <v>320000</v>
       </c>
       <c r="G19" s="18">
-        <v>2300000</v>
+        <v>8000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1265,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>92000</v>
+        <v>320000</v>
       </c>
       <c r="G20" s="18">
-        <v>2300000</v>
+        <v>8000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1282,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>89179</v>
+        <v>320000</v>
       </c>
       <c r="G21" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1305,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>89179</v>
+        <v>320000</v>
       </c>
       <c r="G22" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1334,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>92000</v>
+        <v>320000</v>
       </c>
       <c r="G23" s="18">
-        <v>2300000</v>
+        <v>8000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1357,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>92000</v>
+        <v>320000</v>
       </c>
       <c r="G24" s="18">
-        <v>2300000</v>
+        <v>8000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1374,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>89179</v>
+        <v>277334</v>
       </c>
       <c r="G25" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1397,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>92000</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>2300000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1420,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
-        <v>89179</v>
+        <v>9490</v>
       </c>
       <c r="G27" s="18">
-        <v>2229480</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1443,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>89179</v>
+        <v>24533</v>
       </c>
       <c r="G28" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1466,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>92000</v>
@@ -1489,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G30" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1512,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>92000</v>
@@ -1535,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G32" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1558,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>92000</v>
@@ -1581,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G34" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1604,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>92000</v>
@@ -1627,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>92000</v>
@@ -1650,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G37" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1673,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>92000</v>
@@ -1696,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G39" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1719,13 +1728,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>92000</v>
@@ -1742,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G41" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1765,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G42" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1788,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>92000</v>
@@ -1811,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G44" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1834,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>92000</v>
@@ -1857,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>92000</v>
@@ -1880,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G47" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1903,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>92000</v>
@@ -1926,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G49" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1949,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>92000</v>
@@ -1972,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G51" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1995,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G52" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2018,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>92000</v>
@@ -2041,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>92000</v>
@@ -2064,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G55" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2087,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>92000</v>
@@ -2110,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G57" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2133,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G58" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2156,16 +2165,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
-        <v>92000</v>
+        <v>24533</v>
       </c>
       <c r="G59" s="18">
         <v>2300000</v>
@@ -2179,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F60" s="18">
-        <v>92000</v>
+        <v>23781</v>
       </c>
       <c r="G60" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2202,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F61" s="18">
         <v>89179</v>
@@ -2225,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G62" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2248,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F63" s="18">
         <v>89179</v>
@@ -2271,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F64" s="18">
         <v>89179</v>
@@ -2294,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G65" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2317,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F66" s="18">
         <v>89179</v>
@@ -2340,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G67" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2363,13 +2372,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
         <v>89179</v>
@@ -2386,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F69" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G69" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2409,13 +2418,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
         <v>89179</v>
@@ -2432,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G71" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2455,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G72" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2478,13 +2487,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F73" s="18">
         <v>89179</v>
@@ -2501,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F74" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G74" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2524,13 +2533,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F75" s="18">
         <v>89179</v>
@@ -2547,16 +2556,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F76" s="18">
-        <v>23781</v>
+        <v>89179</v>
       </c>
       <c r="G76" s="18">
         <v>2229480</v>
@@ -2570,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
-        <v>24533</v>
+        <v>89179</v>
       </c>
       <c r="G77" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2593,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>140000</v>
+        <v>89179</v>
       </c>
       <c r="G78" s="18">
-        <v>4025000</v>
+        <v>2229480</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2616,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F79" s="18">
-        <v>140000</v>
+        <v>89179</v>
       </c>
       <c r="G79" s="18">
-        <v>4025000</v>
+        <v>2229480</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2639,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F80" s="18">
-        <v>161000</v>
+        <v>89179</v>
       </c>
       <c r="G80" s="18">
-        <v>4025000</v>
+        <v>2229480</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2662,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F81" s="18">
-        <v>80000</v>
+        <v>89179</v>
       </c>
       <c r="G81" s="18">
-        <v>2000000</v>
+        <v>2229480</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2685,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F82" s="18">
-        <v>80000</v>
+        <v>89179</v>
       </c>
       <c r="G82" s="18">
-        <v>2000000</v>
+        <v>2229480</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2708,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
-        <v>80000</v>
+        <v>89179</v>
       </c>
       <c r="G83" s="18">
-        <v>2000000</v>
+        <v>2229480</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2731,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F84" s="18">
-        <v>277334</v>
+        <v>89179</v>
       </c>
       <c r="G84" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2754,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F85" s="18">
-        <v>320000</v>
+        <v>89179</v>
       </c>
       <c r="G85" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2777,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F86" s="18">
-        <v>80000</v>
+        <v>89179</v>
       </c>
       <c r="G86" s="18">
-        <v>2000000</v>
+        <v>2229480</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2800,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F87" s="18">
-        <v>320000</v>
+        <v>89179</v>
       </c>
       <c r="G87" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2823,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
-        <v>80000</v>
+        <v>89179</v>
       </c>
       <c r="G88" s="18">
-        <v>2000000</v>
+        <v>2229480</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2846,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F89" s="18">
-        <v>80000</v>
+        <v>89179</v>
       </c>
       <c r="G89" s="18">
-        <v>2000000</v>
+        <v>2229480</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2869,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F90" s="18">
-        <v>320000</v>
+        <v>161000</v>
       </c>
       <c r="G90" s="18">
-        <v>8000000</v>
+        <v>4025000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2892,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F91" s="18">
-        <v>320000</v>
+        <v>140000</v>
       </c>
       <c r="G91" s="18">
-        <v>8000000</v>
+        <v>4025000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2915,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F92" s="18">
-        <v>80000</v>
+        <v>140000</v>
       </c>
       <c r="G92" s="18">
-        <v>2000000</v>
+        <v>4025000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2938,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F93" s="18">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="G93" s="18">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2961,13 +2970,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F94" s="18">
         <v>80000</v>
@@ -2984,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F95" s="18">
         <v>80000</v>
@@ -3007,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F96" s="18">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="G96" s="18">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3030,19 +3039,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F97" s="18">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="G97" s="18">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3053,13 +3062,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F98" s="18">
         <v>80000</v>
@@ -3076,13 +3085,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F99" s="18">
         <v>80000</v>
@@ -3099,75 +3108,167 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F100" s="18">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="G100" s="18">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E101" s="22" t="s">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F101" s="24">
+      <c r="D101" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="18">
         <v>80000</v>
       </c>
-      <c r="G101" s="24">
+      <c r="G101" s="18">
         <v>2000000</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G102" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G103" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G104" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="24">
+        <v>80000</v>
+      </c>
+      <c r="G105" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="26"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="H110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="32"/>
+      <c r="H111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H110:J110"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002144505.xlsx
+++ b/Data/EC/NIT-9002144505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BAA953F-AEBA-4B7A-947E-33C48004C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75A6498-9830-4D47-B77E-B62E4638F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB855FDB-83F5-4A35-A9D7-C7A36BAA521A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1EEA0E5-4AE3-471E-9D97-931D10C91AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="79">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,184 +65,181 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128053405</t>
+  </si>
+  <si>
+    <t>CARMELO SAMUEL BEJARANO AMELL</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1143375084</t>
+  </si>
+  <si>
+    <t>ALBERTO ENRIQUE CEBALLOS CAICEDO</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1096200405</t>
+  </si>
+  <si>
+    <t>MARIO JOSE MORA RICO</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>1044426349</t>
+  </si>
+  <si>
+    <t>ALVARO JUNIOR ARANGO PONTON</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>73558117</t>
   </si>
   <si>
     <t>HEBERTH ENRIQUE SIMANCAS GUARDO</t>
   </si>
   <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1063075713</t>
-  </si>
-  <si>
-    <t>MOISES DAVID ORTIZ SUAREZ</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1128053405</t>
-  </si>
-  <si>
-    <t>CARMELO SAMUEL BEJARANO AMELL</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1143375084</t>
-  </si>
-  <si>
-    <t>ALBERTO ENRIQUE CEBALLOS CAICEDO</t>
-  </si>
-  <si>
-    <t>1096200405</t>
-  </si>
-  <si>
-    <t>MARIO JOSE MORA RICO</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1044426349</t>
-  </si>
-  <si>
-    <t>ALVARO JUNIOR ARANGO PONTON</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -341,7 +338,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -354,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -556,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF093390-4C74-9ABF-651D-EBC77D06BBA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47D900E-B3FF-9AD2-BCE1-939E3411BBDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B0C57C-6A17-418E-9F99-0D9D4E6C5F40}">
-  <dimension ref="B2:J111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C00779-FE11-43B2-9CAA-EBE17EFABCE2}">
+  <dimension ref="B2:J110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1032,7 +1029,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1077,7 +1074,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1109,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10123802</v>
+        <v>10137372</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1125,17 +1122,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1162,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1185,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>320000</v>
+        <v>24533</v>
       </c>
       <c r="G16" s="18">
-        <v>8000000</v>
+        <v>2300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1208,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>320000</v>
+        <v>92000</v>
       </c>
       <c r="G17" s="18">
-        <v>8000000</v>
+        <v>2300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1231,10 +1228,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>320000</v>
+        <v>92000</v>
       </c>
       <c r="G18" s="18">
-        <v>8000000</v>
+        <v>2300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1245,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
-        <v>320000</v>
+        <v>89179</v>
       </c>
       <c r="G19" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1274,13 +1271,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>320000</v>
+        <v>92000</v>
       </c>
       <c r="G20" s="18">
-        <v>8000000</v>
+        <v>2300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1291,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>320000</v>
+        <v>89179</v>
       </c>
       <c r="G21" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,10 +1320,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>320000</v>
+        <v>92000</v>
       </c>
       <c r="G22" s="18">
-        <v>8000000</v>
+        <v>2300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1337,19 +1334,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>320000</v>
+        <v>89179</v>
       </c>
       <c r="G23" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1366,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>320000</v>
+        <v>92000</v>
       </c>
       <c r="G24" s="18">
-        <v>8000000</v>
+        <v>2300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1383,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>277334</v>
+        <v>89179</v>
       </c>
       <c r="G25" s="18">
-        <v>8000000</v>
+        <v>2229480</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1406,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>92000</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>2300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1429,19 +1426,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>9490</v>
+        <v>89179</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>2229480</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1452,16 +1449,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>24533</v>
+        <v>92000</v>
       </c>
       <c r="G28" s="18">
         <v>2300000</v>
@@ -1475,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G29" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1498,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>92000</v>
@@ -1521,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G31" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1544,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>92000</v>
@@ -1567,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G33" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1590,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>92000</v>
@@ -1613,19 +1610,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G35" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>92000</v>
@@ -1659,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F37" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G37" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1682,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>92000</v>
@@ -1705,19 +1702,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F39" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G39" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1728,13 +1725,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>92000</v>
@@ -1751,19 +1748,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G41" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1774,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>92000</v>
@@ -1797,19 +1794,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G43" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1820,13 +1817,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>92000</v>
@@ -1843,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G45" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1866,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>92000</v>
@@ -1889,19 +1886,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G47" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1912,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
         <v>92000</v>
@@ -1935,19 +1932,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G49" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1958,13 +1955,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>92000</v>
@@ -1981,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G51" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2004,13 +2001,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
         <v>92000</v>
@@ -2027,19 +2024,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G53" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2050,13 +2047,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
         <v>92000</v>
@@ -2073,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G55" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2096,13 +2093,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>92000</v>
@@ -2119,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>92000</v>
+        <v>89179</v>
       </c>
       <c r="G57" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2142,13 +2139,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
         <v>92000</v>
@@ -2165,19 +2162,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
-        <v>24533</v>
+        <v>89179</v>
       </c>
       <c r="G59" s="18">
-        <v>2300000</v>
+        <v>2229480</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2188,19 +2185,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>23781</v>
+        <v>92000</v>
       </c>
       <c r="G60" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2211,13 +2208,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
         <v>89179</v>
@@ -2234,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G62" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2257,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
         <v>89179</v>
@@ -2280,19 +2277,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G64" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2303,13 +2300,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
         <v>89179</v>
@@ -2326,19 +2323,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F66" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G66" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2349,13 +2346,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F67" s="18">
         <v>89179</v>
@@ -2372,19 +2369,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G68" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2395,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
         <v>89179</v>
@@ -2418,19 +2415,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G70" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2441,13 +2438,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F71" s="18">
         <v>89179</v>
@@ -2464,19 +2461,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G72" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2487,13 +2484,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
         <v>89179</v>
@@ -2510,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F74" s="18">
-        <v>89179</v>
+        <v>92000</v>
       </c>
       <c r="G74" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2533,13 +2530,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F75" s="18">
         <v>89179</v>
@@ -2556,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
-        <v>89179</v>
+        <v>24533</v>
       </c>
       <c r="G76" s="18">
-        <v>2229480</v>
+        <v>2300000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2579,16 +2576,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" s="18">
-        <v>89179</v>
+        <v>23781</v>
       </c>
       <c r="G77" s="18">
         <v>2229480</v>
@@ -2602,19 +2599,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
-        <v>89179</v>
+        <v>140000</v>
       </c>
       <c r="G78" s="18">
-        <v>2229480</v>
+        <v>4025000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2625,19 +2622,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F79" s="18">
-        <v>89179</v>
+        <v>140000</v>
       </c>
       <c r="G79" s="18">
-        <v>2229480</v>
+        <v>4025000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2648,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>89179</v>
+        <v>161000</v>
       </c>
       <c r="G80" s="18">
-        <v>2229480</v>
+        <v>4025000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2671,19 +2668,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F81" s="18">
-        <v>89179</v>
+        <v>80000</v>
       </c>
       <c r="G81" s="18">
-        <v>2229480</v>
+        <v>2000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2694,19 +2691,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
-        <v>89179</v>
+        <v>80000</v>
       </c>
       <c r="G82" s="18">
-        <v>2229480</v>
+        <v>2000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2717,19 +2714,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
-        <v>89179</v>
+        <v>277334</v>
       </c>
       <c r="G83" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2740,19 +2737,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F84" s="18">
-        <v>89179</v>
+        <v>80000</v>
       </c>
       <c r="G84" s="18">
-        <v>2229480</v>
+        <v>2000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2763,19 +2760,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F85" s="18">
-        <v>89179</v>
+        <v>320000</v>
       </c>
       <c r="G85" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2786,19 +2783,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F86" s="18">
-        <v>89179</v>
+        <v>80000</v>
       </c>
       <c r="G86" s="18">
-        <v>2229480</v>
+        <v>2000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2809,19 +2806,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F87" s="18">
-        <v>89179</v>
+        <v>320000</v>
       </c>
       <c r="G87" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2832,19 +2829,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F88" s="18">
-        <v>89179</v>
+        <v>80000</v>
       </c>
       <c r="G88" s="18">
-        <v>2229480</v>
+        <v>2000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2855,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F89" s="18">
-        <v>89179</v>
+        <v>320000</v>
       </c>
       <c r="G89" s="18">
-        <v>2229480</v>
+        <v>8000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2878,19 +2875,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F90" s="18">
-        <v>161000</v>
+        <v>80000</v>
       </c>
       <c r="G90" s="18">
-        <v>4025000</v>
+        <v>2000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2901,19 +2898,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F91" s="18">
-        <v>140000</v>
+        <v>320000</v>
       </c>
       <c r="G91" s="18">
-        <v>4025000</v>
+        <v>8000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2924,19 +2921,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D92" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F92" s="18">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="G92" s="18">
-        <v>4025000</v>
+        <v>2000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2947,19 +2944,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F93" s="18">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="G93" s="18">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2970,13 +2967,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F94" s="18">
         <v>80000</v>
@@ -2993,19 +2990,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F95" s="18">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="G95" s="18">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3016,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F96" s="18">
         <v>80000</v>
@@ -3039,19 +3036,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F97" s="18">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="G97" s="18">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3062,13 +3059,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F98" s="18">
         <v>80000</v>
@@ -3085,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F99" s="18">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="G99" s="18">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3108,13 +3105,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F100" s="18">
         <v>80000</v>
@@ -3131,13 +3128,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F101" s="18">
         <v>80000</v>
@@ -3154,19 +3151,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D102" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F102" s="18">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="G102" s="18">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3177,13 +3174,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F103" s="18">
         <v>80000</v>
@@ -3196,54 +3193,42 @@
       <c r="J103" s="20"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E104" s="16" t="s">
+      <c r="B104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="24">
         <v>80000</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="24">
         <v>2000000</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F105" s="24">
-        <v>80000</v>
-      </c>
-      <c r="G105" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="26"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="26"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="H109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" s="32"/>
       <c r="H110" s="1" t="s">
@@ -3252,23 +3237,12 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B110:C110"/>
-    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H109:J109"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
